--- a/desarrollo/rigk-sg-back/files/templates/Declaraciones_CI_YYYY.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/Declaraciones_CI_YYYY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2430" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="397">
   <si>
     <t>ID empresa</t>
   </si>
@@ -598,6 +598,18 @@
     <t>77934420-7</t>
   </si>
   <si>
+    <t>ZZ3</t>
+  </si>
+  <si>
+    <t>EMPRESA ZZ3</t>
+  </si>
+  <si>
+    <t>est zz3</t>
+  </si>
+  <si>
+    <t>ZORO Z2 ZORTO</t>
+  </si>
+  <si>
     <t>PR-2</t>
   </si>
   <si>
@@ -1030,6 +1042,12 @@
     <t>empresa dashboard 2</t>
   </si>
   <si>
+    <t>tm-2</t>
+  </si>
+  <si>
+    <t>tomas2</t>
+  </si>
+  <si>
     <t>Notas: Todo en Toneladas. Totales anuales del año de ejercicio (año que se declara)</t>
   </si>
   <si>
@@ -1045,19 +1063,19 @@
     <t>Peso Total Declarado</t>
   </si>
   <si>
-    <t>11158413,70</t>
+    <t>11164413,70</t>
   </si>
   <si>
     <t>Peso Total Valorizado</t>
   </si>
   <si>
-    <t>1048254,43</t>
+    <t>1049254,43</t>
   </si>
   <si>
     <t xml:space="preserve">Total Reciclaje Papel/Cartón (Reciclaje Mecánico + Reciclaje Interno) </t>
   </si>
   <si>
-    <t>1017000,11</t>
+    <t>1019000,11</t>
   </si>
   <si>
     <t xml:space="preserve">Total Reciclaje Plástico (Reciclaje Mecánico + Reciclaje Interno) </t>
@@ -1108,7 +1126,7 @@
     <t>Total no valorizado Papel/Cartón (Disposicion Final en RS +  DF en Relleno Seguridad)</t>
   </si>
   <si>
-    <t>29000,00</t>
+    <t>31000,00</t>
   </si>
   <si>
     <t>Total no valorizado Plastico (Disposicion Final en RS + DF en Relleno Seguridad)</t>
@@ -1135,7 +1153,7 @@
     <t>Total preparación para reutilización por todas las subcategoría (Disposicion Final en RS + DF en Relleno Seguridad)</t>
   </si>
   <si>
-    <t>5065200,44</t>
+    <t>5067200,44</t>
   </si>
   <si>
     <t xml:space="preserve">Total Valorización Región de Arica y Parinacota  (Reciclaje Mecánico + Reciclaje Interno + Valorizacion Energetica) </t>
@@ -1566,7 +1584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R138"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
@@ -2505,7 +2523,7 @@
         <v>25</v>
       </c>
       <c r="I17" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="J17" t="s">
         <v>27</v>
@@ -2520,7 +2538,7 @@
         <v>83</v>
       </c>
       <c r="N17" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="O17" t="s">
         <v>84</v>
@@ -4948,346 +4966,346 @@
         <v>194</v>
       </c>
       <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
         <v>195</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>196</v>
       </c>
-      <c r="D61" t="s">
-        <v>31</v>
-      </c>
       <c r="E61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H61" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I61" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J61" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K61" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L61" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M61" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N61" t="s">
         <v>31</v>
       </c>
       <c r="O61" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="P61" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q61" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R61" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
+        <v>194</v>
+      </c>
+      <c r="B62" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" t="s">
+        <v>195</v>
+      </c>
+      <c r="D62" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>132</v>
+      </c>
+      <c r="H62" t="s">
+        <v>25</v>
+      </c>
+      <c r="I62" t="s">
+        <v>26</v>
+      </c>
+      <c r="J62" t="s">
+        <v>27</v>
+      </c>
+      <c r="K62" t="s">
+        <v>40</v>
+      </c>
+      <c r="L62" t="s">
+        <v>85</v>
+      </c>
+      <c r="M62" t="s">
+        <v>83</v>
+      </c>
+      <c r="N62" t="s">
+        <v>31</v>
+      </c>
+      <c r="O62" t="s">
+        <v>113</v>
+      </c>
+      <c r="P62" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>87</v>
+      </c>
+      <c r="R62" t="s">
         <v>197</v>
-      </c>
-      <c r="B62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C62" t="s">
-        <v>198</v>
-      </c>
-      <c r="D62" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" t="s">
-        <v>31</v>
-      </c>
-      <c r="F62" t="s">
-        <v>31</v>
-      </c>
-      <c r="G62" t="s">
-        <v>31</v>
-      </c>
-      <c r="H62" t="s">
-        <v>31</v>
-      </c>
-      <c r="I62" t="s">
-        <v>31</v>
-      </c>
-      <c r="J62" t="s">
-        <v>31</v>
-      </c>
-      <c r="K62" t="s">
-        <v>31</v>
-      </c>
-      <c r="L62" t="s">
-        <v>31</v>
-      </c>
-      <c r="M62" t="s">
-        <v>31</v>
-      </c>
-      <c r="N62" t="s">
-        <v>31</v>
-      </c>
-      <c r="O62" t="s">
-        <v>31</v>
-      </c>
-      <c r="P62" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>31</v>
-      </c>
-      <c r="R62" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B63" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C63" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D63" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="E63" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H63" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I63" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J63" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K63" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="L63" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M63" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N63" t="s">
         <v>31</v>
       </c>
       <c r="O63" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="P63" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="Q63" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="R63" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
         <v>19</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="D64" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="E64" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F64" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I64" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J64" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K64" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="L64" t="s">
-        <v>31</v>
+        <v>91</v>
       </c>
       <c r="M64" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N64" t="s">
         <v>31</v>
       </c>
       <c r="O64" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="P64" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="Q64" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="R64" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B65" t="s">
         <v>19</v>
       </c>
       <c r="C65" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D65" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H65" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J65" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K65" t="s">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="L65" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="M65" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N65" t="s">
         <v>31</v>
       </c>
       <c r="O65" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="P65" t="s">
-        <v>31</v>
+        <v>97</v>
       </c>
       <c r="Q65" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="R65" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B66" t="s">
         <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="D66" t="s">
-        <v>31</v>
+        <v>196</v>
       </c>
       <c r="E66" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G66" t="s">
-        <v>31</v>
+        <v>132</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I66" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J66" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K66" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="L66" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M66" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="N66" t="s">
         <v>31</v>
       </c>
       <c r="O66" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
       <c r="P66" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="Q66" t="s">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="R66" t="s">
-        <v>31</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D67" t="s">
         <v>31</v>
@@ -5337,13 +5355,13 @@
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C68" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D68" t="s">
         <v>31</v>
@@ -5393,13 +5411,13 @@
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C69" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D69" t="s">
         <v>31</v>
@@ -5449,13 +5467,13 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
         <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
@@ -5505,13 +5523,13 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B71" t="s">
         <v>19</v>
       </c>
       <c r="C71" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
         <v>31</v>
@@ -5561,13 +5579,13 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D72" t="s">
         <v>31</v>
@@ -5617,13 +5635,13 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="D73" t="s">
         <v>31</v>
@@ -5673,13 +5691,13 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
@@ -5729,13 +5747,13 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
@@ -5785,13 +5803,13 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="D76" t="s">
         <v>31</v>
@@ -5841,13 +5859,13 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D77" t="s">
         <v>31</v>
@@ -5897,13 +5915,13 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B78" t="s">
-        <v>224</v>
+        <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="D78" t="s">
         <v>31</v>
@@ -5953,13 +5971,13 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B79" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>64</v>
+        <v>218</v>
       </c>
       <c r="D79" t="s">
         <v>31</v>
@@ -6009,13 +6027,13 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D80" t="s">
         <v>31</v>
@@ -6065,13 +6083,13 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
@@ -6121,13 +6139,13 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="D82" t="s">
         <v>31</v>
@@ -6177,13 +6195,13 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D83" t="s">
         <v>31</v>
@@ -6233,13 +6251,13 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B84" t="s">
-        <v>48</v>
+        <v>228</v>
       </c>
       <c r="C84" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D84" t="s">
         <v>31</v>
@@ -6289,13 +6307,13 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B85" t="s">
         <v>48</v>
       </c>
       <c r="C85" t="s">
-        <v>238</v>
+        <v>64</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -6345,13 +6363,13 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -6401,13 +6419,13 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B87" t="s">
         <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -6457,13 +6475,13 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B88" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -6513,13 +6531,13 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B89" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -6569,13 +6587,13 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B90" t="s">
         <v>48</v>
       </c>
       <c r="C90" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
@@ -6625,13 +6643,13 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B91" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C91" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
@@ -6681,13 +6699,13 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -6737,13 +6755,13 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B93" t="s">
         <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -6793,13 +6811,13 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -6849,13 +6867,13 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B95" t="s">
         <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -6905,13 +6923,13 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B96" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
@@ -6961,13 +6979,13 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B97" t="s">
         <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -7017,13 +7035,13 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B98" t="s">
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
@@ -7073,13 +7091,13 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="B99" t="s">
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="D99" t="s">
         <v>31</v>
@@ -7129,13 +7147,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
@@ -7185,13 +7203,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B101" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C101" t="s">
-        <v>140</v>
+        <v>262</v>
       </c>
       <c r="D101" t="s">
         <v>31</v>
@@ -7241,13 +7259,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B102" t="s">
-        <v>271</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="D102" t="s">
         <v>31</v>
@@ -7297,13 +7315,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B103" t="s">
         <v>19</v>
       </c>
       <c r="C103" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="D103" t="s">
         <v>31</v>
@@ -7353,13 +7371,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B104" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="D104" t="s">
         <v>31</v>
@@ -7409,13 +7427,13 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="D105" t="s">
         <v>31</v>
@@ -7465,13 +7483,13 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B106" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -7521,13 +7539,13 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B107" t="s">
-        <v>282</v>
+        <v>141</v>
       </c>
       <c r="C107" t="s">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="D107" t="s">
         <v>31</v>
@@ -7577,13 +7595,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B108" t="s">
-        <v>48</v>
+        <v>275</v>
       </c>
       <c r="C108" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
@@ -7633,13 +7651,13 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="B109" t="s">
         <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D109" t="s">
         <v>31</v>
@@ -7689,13 +7707,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>48</v>
       </c>
       <c r="C110" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D110" t="s">
         <v>31</v>
@@ -7745,13 +7763,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="B111" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -7801,13 +7819,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B112" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D112" t="s">
         <v>31</v>
@@ -7857,13 +7875,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B113" t="s">
-        <v>141</v>
+        <v>286</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D113" t="s">
         <v>31</v>
@@ -7913,13 +7931,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B114" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -7969,13 +7987,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="B115" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C115" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -8025,13 +8043,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B116" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -8081,13 +8099,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -8137,13 +8155,13 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="B118" t="s">
         <v>141</v>
       </c>
       <c r="C118" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -8193,13 +8211,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="B119" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -8249,13 +8267,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="D120" t="s">
         <v>31</v>
@@ -8305,13 +8323,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B121" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C121" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="D121" t="s">
         <v>31</v>
@@ -8361,13 +8379,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B122" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C122" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -8417,13 +8435,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B123" t="s">
         <v>19</v>
       </c>
       <c r="C123" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D123" t="s">
         <v>31</v>
@@ -8473,13 +8491,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>141</v>
       </c>
       <c r="C124" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="D124" t="s">
         <v>31</v>
@@ -8529,13 +8547,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B125" t="s">
-        <v>323</v>
+        <v>48</v>
       </c>
       <c r="C125" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -8585,13 +8603,13 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="B126" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="D126" t="s">
         <v>31</v>
@@ -8641,13 +8659,13 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="B127" t="s">
-        <v>328</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="D127" t="s">
         <v>31</v>
@@ -8697,13 +8715,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="B128" t="s">
-        <v>48</v>
+        <v>319</v>
       </c>
       <c r="C128" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="D128" t="s">
         <v>31</v>
@@ -8753,13 +8771,13 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D129" t="s">
         <v>31</v>
@@ -8809,13 +8827,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -8865,57 +8883,449 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
+        <v>326</v>
+      </c>
+      <c r="B131" t="s">
+        <v>327</v>
+      </c>
+      <c r="C131" t="s">
+        <v>328</v>
+      </c>
+      <c r="D131" t="s">
+        <v>31</v>
+      </c>
+      <c r="E131" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" t="s">
+        <v>31</v>
+      </c>
+      <c r="G131" t="s">
+        <v>31</v>
+      </c>
+      <c r="H131" t="s">
+        <v>31</v>
+      </c>
+      <c r="I131" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" t="s">
+        <v>31</v>
+      </c>
+      <c r="K131" t="s">
+        <v>31</v>
+      </c>
+      <c r="L131" t="s">
+        <v>31</v>
+      </c>
+      <c r="M131" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" t="s">
+        <v>31</v>
+      </c>
+      <c r="O131" t="s">
+        <v>31</v>
+      </c>
+      <c r="P131" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q131" t="s">
+        <v>31</v>
+      </c>
+      <c r="R131" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>329</v>
+      </c>
+      <c r="B132" t="s">
+        <v>48</v>
+      </c>
+      <c r="C132" t="s">
+        <v>330</v>
+      </c>
+      <c r="D132" t="s">
+        <v>31</v>
+      </c>
+      <c r="E132" t="s">
+        <v>31</v>
+      </c>
+      <c r="F132" t="s">
+        <v>31</v>
+      </c>
+      <c r="G132" t="s">
+        <v>31</v>
+      </c>
+      <c r="H132" t="s">
+        <v>31</v>
+      </c>
+      <c r="I132" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" t="s">
+        <v>31</v>
+      </c>
+      <c r="K132" t="s">
+        <v>31</v>
+      </c>
+      <c r="L132" t="s">
+        <v>31</v>
+      </c>
+      <c r="M132" t="s">
+        <v>31</v>
+      </c>
+      <c r="N132" t="s">
+        <v>31</v>
+      </c>
+      <c r="O132" t="s">
+        <v>31</v>
+      </c>
+      <c r="P132" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q132" t="s">
+        <v>31</v>
+      </c>
+      <c r="R132" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>331</v>
+      </c>
+      <c r="B133" t="s">
+        <v>332</v>
+      </c>
+      <c r="C133" t="s">
+        <v>333</v>
+      </c>
+      <c r="D133" t="s">
+        <v>31</v>
+      </c>
+      <c r="E133" t="s">
+        <v>31</v>
+      </c>
+      <c r="F133" t="s">
+        <v>31</v>
+      </c>
+      <c r="G133" t="s">
+        <v>31</v>
+      </c>
+      <c r="H133" t="s">
+        <v>31</v>
+      </c>
+      <c r="I133" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" t="s">
+        <v>31</v>
+      </c>
+      <c r="K133" t="s">
+        <v>31</v>
+      </c>
+      <c r="L133" t="s">
+        <v>31</v>
+      </c>
+      <c r="M133" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" t="s">
+        <v>31</v>
+      </c>
+      <c r="O133" t="s">
+        <v>31</v>
+      </c>
+      <c r="P133" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q133" t="s">
+        <v>31</v>
+      </c>
+      <c r="R133" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>334</v>
+      </c>
+      <c r="B134" t="s">
+        <v>48</v>
+      </c>
+      <c r="C134" t="s">
+        <v>335</v>
+      </c>
+      <c r="D134" t="s">
+        <v>31</v>
+      </c>
+      <c r="E134" t="s">
+        <v>31</v>
+      </c>
+      <c r="F134" t="s">
+        <v>31</v>
+      </c>
+      <c r="G134" t="s">
+        <v>31</v>
+      </c>
+      <c r="H134" t="s">
+        <v>31</v>
+      </c>
+      <c r="I134" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" t="s">
+        <v>31</v>
+      </c>
+      <c r="L134" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" t="s">
+        <v>31</v>
+      </c>
+      <c r="O134" t="s">
+        <v>31</v>
+      </c>
+      <c r="P134" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q134" t="s">
+        <v>31</v>
+      </c>
+      <c r="R134" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>336</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B135" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" t="s">
+        <v>337</v>
+      </c>
+      <c r="D135" t="s">
+        <v>31</v>
+      </c>
+      <c r="E135" t="s">
+        <v>31</v>
+      </c>
+      <c r="F135" t="s">
+        <v>31</v>
+      </c>
+      <c r="G135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" t="s">
+        <v>31</v>
+      </c>
+      <c r="I135" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" t="s">
+        <v>31</v>
+      </c>
+      <c r="K135" t="s">
+        <v>31</v>
+      </c>
+      <c r="L135" t="s">
+        <v>31</v>
+      </c>
+      <c r="M135" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" t="s">
+        <v>31</v>
+      </c>
+      <c r="O135" t="s">
+        <v>31</v>
+      </c>
+      <c r="P135" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q135" t="s">
+        <v>31</v>
+      </c>
+      <c r="R135" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>338</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136" t="s">
+        <v>339</v>
+      </c>
+      <c r="D136" t="s">
+        <v>31</v>
+      </c>
+      <c r="E136" t="s">
+        <v>31</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="G136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" t="s">
+        <v>31</v>
+      </c>
+      <c r="I136" t="s">
+        <v>31</v>
+      </c>
+      <c r="J136" t="s">
+        <v>31</v>
+      </c>
+      <c r="K136" t="s">
+        <v>31</v>
+      </c>
+      <c r="L136" t="s">
+        <v>31</v>
+      </c>
+      <c r="M136" t="s">
+        <v>31</v>
+      </c>
+      <c r="N136" t="s">
+        <v>31</v>
+      </c>
+      <c r="O136" t="s">
+        <v>31</v>
+      </c>
+      <c r="P136" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q136" t="s">
+        <v>31</v>
+      </c>
+      <c r="R136" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>340</v>
+      </c>
+      <c r="B137" t="s">
         <v>48</v>
       </c>
-      <c r="C131" t="s">
-        <v>337</v>
-      </c>
-      <c r="D131" t="s">
-        <v>31</v>
-      </c>
-      <c r="E131" t="s">
-        <v>31</v>
-      </c>
-      <c r="F131" t="s">
-        <v>31</v>
-      </c>
-      <c r="G131" t="s">
-        <v>31</v>
-      </c>
-      <c r="H131" t="s">
-        <v>31</v>
-      </c>
-      <c r="I131" t="s">
-        <v>31</v>
-      </c>
-      <c r="J131" t="s">
-        <v>31</v>
-      </c>
-      <c r="K131" t="s">
-        <v>31</v>
-      </c>
-      <c r="L131" t="s">
-        <v>31</v>
-      </c>
-      <c r="M131" t="s">
-        <v>31</v>
-      </c>
-      <c r="N131" t="s">
-        <v>31</v>
-      </c>
-      <c r="O131" t="s">
-        <v>31</v>
-      </c>
-      <c r="P131" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q131" t="s">
-        <v>31</v>
-      </c>
-      <c r="R131" t="s">
+      <c r="C137" t="s">
+        <v>341</v>
+      </c>
+      <c r="D137" t="s">
+        <v>31</v>
+      </c>
+      <c r="E137" t="s">
+        <v>31</v>
+      </c>
+      <c r="F137" t="s">
+        <v>31</v>
+      </c>
+      <c r="G137" t="s">
+        <v>31</v>
+      </c>
+      <c r="H137" t="s">
+        <v>31</v>
+      </c>
+      <c r="I137" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" t="s">
+        <v>31</v>
+      </c>
+      <c r="K137" t="s">
+        <v>31</v>
+      </c>
+      <c r="L137" t="s">
+        <v>31</v>
+      </c>
+      <c r="M137" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" t="s">
+        <v>31</v>
+      </c>
+      <c r="O137" t="s">
+        <v>31</v>
+      </c>
+      <c r="P137" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q137" t="s">
+        <v>31</v>
+      </c>
+      <c r="R137" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>342</v>
+      </c>
+      <c r="B138" t="s">
+        <v>332</v>
+      </c>
+      <c r="C138" t="s">
+        <v>343</v>
+      </c>
+      <c r="D138" t="s">
+        <v>31</v>
+      </c>
+      <c r="E138" t="s">
+        <v>31</v>
+      </c>
+      <c r="F138" t="s">
+        <v>31</v>
+      </c>
+      <c r="G138" t="s">
+        <v>31</v>
+      </c>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" t="s">
+        <v>31</v>
+      </c>
+      <c r="K138" t="s">
+        <v>31</v>
+      </c>
+      <c r="L138" t="s">
+        <v>31</v>
+      </c>
+      <c r="M138" t="s">
+        <v>31</v>
+      </c>
+      <c r="N138" t="s">
+        <v>31</v>
+      </c>
+      <c r="O138" t="s">
+        <v>31</v>
+      </c>
+      <c r="P138" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q138" t="s">
+        <v>31</v>
+      </c>
+      <c r="R138" t="s">
         <v>31</v>
       </c>
     </row>
@@ -8936,28 +9346,28 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B3" s="1">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B4" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B5" s="1">
         <v>26</v>
@@ -8965,71 +9375,71 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>160</v>
@@ -9037,79 +9447,79 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>160</v>
@@ -9117,111 +9527,111 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>180</v>
@@ -9229,10 +9639,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/desarrollo/rigk-sg-back/files/templates/Declaraciones_CI_YYYY.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/Declaraciones_CI_YYYY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2556" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="408">
   <si>
     <t>ID empresa</t>
   </si>
@@ -610,6 +610,51 @@
     <t>ZORO Z2 ZORTO</t>
   </si>
   <si>
+    <t>tm-2</t>
+  </si>
+  <si>
+    <t>19115648-k</t>
+  </si>
+  <si>
+    <t>tomas2</t>
+  </si>
+  <si>
+    <t>test excel</t>
+  </si>
+  <si>
+    <t>Arica</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>29/11/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPRESA ZOR-6 </t>
+  </si>
+  <si>
+    <t>tomas dos dos</t>
+  </si>
+  <si>
+    <t>excel-1</t>
+  </si>
+  <si>
+    <t>Región de Coquimbo</t>
+  </si>
+  <si>
+    <t>La Serena</t>
+  </si>
+  <si>
+    <t>INVERSIONES PANUL LIMITADA</t>
+  </si>
+  <si>
+    <t>76349947-2</t>
+  </si>
+  <si>
+    <t>usuario excel-1 excel-1</t>
+  </si>
+  <si>
     <t>PR-2</t>
   </si>
   <si>
@@ -649,9 +694,6 @@
     <t>ZOR-6</t>
   </si>
   <si>
-    <t xml:space="preserve">EMPRESA ZOR-6 </t>
-  </si>
-  <si>
     <t>ZOR-9</t>
   </si>
   <si>
@@ -1012,9 +1054,6 @@
     <t>tm-1</t>
   </si>
   <si>
-    <t>19115648-k</t>
-  </si>
-  <si>
     <t>tomas1</t>
   </si>
   <si>
@@ -1042,12 +1081,6 @@
     <t>empresa dashboard 2</t>
   </si>
   <si>
-    <t>tm-2</t>
-  </si>
-  <si>
-    <t>tomas2</t>
-  </si>
-  <si>
     <t>Notas: Todo en Toneladas. Totales anuales del año de ejercicio (año que se declara)</t>
   </si>
   <si>
@@ -1063,7 +1096,7 @@
     <t>Peso Total Declarado</t>
   </si>
   <si>
-    <t>11164413,70</t>
+    <t>11364413,70</t>
   </si>
   <si>
     <t>Peso Total Valorizado</t>
@@ -1075,7 +1108,7 @@
     <t xml:space="preserve">Total Reciclaje Papel/Cartón (Reciclaje Mecánico + Reciclaje Interno) </t>
   </si>
   <si>
-    <t>1019000,11</t>
+    <t>1119000,11</t>
   </si>
   <si>
     <t xml:space="preserve">Total Reciclaje Plástico (Reciclaje Mecánico + Reciclaje Interno) </t>
@@ -1087,7 +1120,7 @@
     <t xml:space="preserve">Total Reciclaje Metal (Reciclaje Mecánico + Reciclaje Interno) </t>
   </si>
   <si>
-    <t>2010000,70</t>
+    <t>2110000,70</t>
   </si>
   <si>
     <t xml:space="preserve">Total Reciclaje Madera (Reciclaje Mecánico + Reciclaje Interno) </t>
@@ -1584,7 +1617,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R138"/>
+  <dimension ref="A1:R139"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
@@ -5308,116 +5341,116 @@
         <v>200</v>
       </c>
       <c r="D67" t="s">
-        <v>31</v>
+        <v>201</v>
       </c>
       <c r="E67" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>155</v>
       </c>
       <c r="G67" t="s">
-        <v>31</v>
+        <v>202</v>
       </c>
       <c r="H67" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J67" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K67" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L67" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M67" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="N67" t="s">
         <v>31</v>
       </c>
       <c r="O67" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="P67" t="s">
-        <v>31</v>
+        <v>205</v>
       </c>
       <c r="Q67" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="R67" t="s">
-        <v>31</v>
+        <v>206</v>
       </c>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B68" t="s">
-        <v>48</v>
+        <v>199</v>
       </c>
       <c r="C68" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="D68" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>31</v>
+        <v>208</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>209</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I68" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J68" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K68" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L68" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="M68" t="s">
-        <v>31</v>
+        <v>203</v>
       </c>
       <c r="N68" t="s">
         <v>31</v>
       </c>
       <c r="O68" t="s">
-        <v>31</v>
+        <v>204</v>
       </c>
       <c r="P68" t="s">
-        <v>31</v>
+        <v>210</v>
       </c>
       <c r="Q68" t="s">
-        <v>31</v>
+        <v>211</v>
       </c>
       <c r="R68" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="B69" t="s">
-        <v>48</v>
+        <v>214</v>
       </c>
       <c r="C69" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="D69" t="s">
         <v>31</v>
@@ -5467,13 +5500,13 @@
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="D70" t="s">
         <v>31</v>
@@ -5523,13 +5556,13 @@
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C71" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="D71" t="s">
         <v>31</v>
@@ -5579,13 +5612,13 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="B72" t="s">
         <v>19</v>
       </c>
       <c r="C72" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="D72" t="s">
         <v>31</v>
@@ -5635,13 +5668,13 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B73" t="s">
         <v>19</v>
       </c>
       <c r="C73" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="D73" t="s">
         <v>31</v>
@@ -5691,13 +5724,13 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
@@ -5747,13 +5780,13 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
@@ -5803,13 +5836,13 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="D76" t="s">
         <v>31</v>
@@ -5859,13 +5892,13 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="D77" t="s">
         <v>31</v>
@@ -5915,13 +5948,13 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D78" t="s">
         <v>31</v>
@@ -5971,13 +6004,13 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="D79" t="s">
         <v>31</v>
@@ -6027,13 +6060,13 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D80" t="s">
         <v>31</v>
@@ -6083,13 +6116,13 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
@@ -6139,13 +6172,13 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D82" t="s">
         <v>31</v>
@@ -6195,13 +6228,13 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D83" t="s">
         <v>31</v>
@@ -6251,13 +6284,13 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="B84" t="s">
-        <v>228</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D84" t="s">
         <v>31</v>
@@ -6307,13 +6340,13 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>230</v>
+        <v>239</v>
       </c>
       <c r="B85" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>64</v>
+        <v>240</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -6363,13 +6396,13 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -6419,13 +6452,13 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C87" t="s">
-        <v>234</v>
+        <v>64</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -6475,13 +6508,13 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="B88" t="s">
         <v>19</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -6531,13 +6564,13 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="B89" t="s">
         <v>19</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -6587,13 +6620,13 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="B90" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
@@ -6643,13 +6676,13 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="B91" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
@@ -6699,13 +6732,13 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="B92" t="s">
         <v>48</v>
       </c>
       <c r="C92" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -6755,13 +6788,13 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C93" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -6811,13 +6844,13 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -6867,13 +6900,13 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="B95" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -6923,13 +6956,13 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
@@ -6979,13 +7012,13 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -7035,13 +7068,13 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
@@ -7091,13 +7124,13 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="B99" t="s">
         <v>19</v>
       </c>
       <c r="C99" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D99" t="s">
         <v>31</v>
@@ -7147,13 +7180,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="B100" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C100" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
@@ -7203,13 +7236,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D101" t="s">
         <v>31</v>
@@ -7259,13 +7292,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="B102" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C102" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D102" t="s">
         <v>31</v>
@@ -7315,13 +7348,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="B103" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D103" t="s">
         <v>31</v>
@@ -7371,13 +7404,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B104" t="s">
         <v>19</v>
       </c>
       <c r="C104" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D104" t="s">
         <v>31</v>
@@ -7427,13 +7460,13 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B105" t="s">
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D105" t="s">
         <v>31</v>
@@ -7483,13 +7516,13 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B106" t="s">
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -7539,13 +7572,13 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B107" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="D107" t="s">
         <v>31</v>
@@ -7595,13 +7628,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
@@ -7651,13 +7684,13 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="B109" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C109" t="s">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="D109" t="s">
         <v>31</v>
@@ -7707,13 +7740,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
       <c r="B110" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="C110" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="D110" t="s">
         <v>31</v>
@@ -7763,13 +7796,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B111" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -7819,13 +7852,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="B112" t="s">
         <v>48</v>
       </c>
       <c r="C112" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="D112" t="s">
         <v>31</v>
@@ -7875,13 +7908,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B113" t="s">
-        <v>286</v>
+        <v>48</v>
       </c>
       <c r="C113" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D113" t="s">
         <v>31</v>
@@ -7931,13 +7964,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B114" t="s">
         <v>48</v>
       </c>
       <c r="C114" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -7987,13 +8020,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>300</v>
       </c>
       <c r="C115" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -8043,13 +8076,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="B116" t="s">
-        <v>293</v>
+        <v>48</v>
       </c>
       <c r="C116" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -8099,13 +8132,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B117" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -8155,13 +8188,13 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B118" t="s">
-        <v>141</v>
+        <v>307</v>
       </c>
       <c r="C118" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -8211,13 +8244,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="B119" t="s">
         <v>141</v>
       </c>
       <c r="C119" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -8267,13 +8300,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B120" t="s">
         <v>141</v>
       </c>
       <c r="C120" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="D120" t="s">
         <v>31</v>
@@ -8323,13 +8356,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="B121" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C121" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="D121" t="s">
         <v>31</v>
@@ -8379,13 +8412,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
-        <v>306</v>
+        <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -8435,13 +8468,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B123" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C123" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="D123" t="s">
         <v>31</v>
@@ -8491,13 +8524,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="B124" t="s">
-        <v>141</v>
+        <v>320</v>
       </c>
       <c r="C124" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D124" t="s">
         <v>31</v>
@@ -8547,13 +8580,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B125" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C125" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -8603,13 +8636,13 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B126" t="s">
-        <v>19</v>
+        <v>141</v>
       </c>
       <c r="C126" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="D126" t="s">
         <v>31</v>
@@ -8659,13 +8692,13 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C127" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D127" t="s">
         <v>31</v>
@@ -8715,13 +8748,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B128" t="s">
-        <v>319</v>
+        <v>19</v>
       </c>
       <c r="C128" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D128" t="s">
         <v>31</v>
@@ -8771,13 +8804,13 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="D129" t="s">
         <v>31</v>
@@ -8827,13 +8860,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="B130" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C130" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -8883,13 +8916,13 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="B131" t="s">
-        <v>327</v>
+        <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="D131" t="s">
         <v>31</v>
@@ -8939,13 +8972,13 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B132" t="s">
-        <v>48</v>
+        <v>338</v>
       </c>
       <c r="C132" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D132" t="s">
         <v>31</v>
@@ -8995,13 +9028,13 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="B133" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C133" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D133" t="s">
         <v>31</v>
@@ -9051,13 +9084,13 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="B134" t="s">
         <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="D134" t="s">
         <v>31</v>
@@ -9107,13 +9140,13 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D135" t="s">
         <v>31</v>
@@ -9163,13 +9196,13 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C136" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="D136" t="s">
         <v>31</v>
@@ -9219,13 +9252,13 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="B137" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C137" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D137" t="s">
         <v>31</v>
@@ -9275,13 +9308,13 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="B138" t="s">
-        <v>332</v>
+        <v>19</v>
       </c>
       <c r="C138" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D138" t="s">
         <v>31</v>
@@ -9326,6 +9359,62 @@
         <v>31</v>
       </c>
       <c r="R138" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>353</v>
+      </c>
+      <c r="B139" t="s">
+        <v>48</v>
+      </c>
+      <c r="C139" t="s">
+        <v>354</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" t="s">
+        <v>31</v>
+      </c>
+      <c r="J139" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" t="s">
+        <v>31</v>
+      </c>
+      <c r="O139" t="s">
+        <v>31</v>
+      </c>
+      <c r="P139" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>31</v>
+      </c>
+      <c r="R139" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9346,100 +9435,100 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>344</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="B3" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>346</v>
+        <v>357</v>
       </c>
       <c r="B4" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
       <c r="B5" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>349</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>350</v>
+        <v>361</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>351</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>355</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>358</v>
+        <v>369</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>360</v>
+        <v>371</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>359</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>372</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>374</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>160</v>
@@ -9447,79 +9536,79 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>364</v>
+        <v>375</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>366</v>
+        <v>377</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>380</v>
+        <v>391</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>160</v>
@@ -9527,111 +9616,111 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>381</v>
+        <v>392</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>382</v>
+        <v>393</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>386</v>
+        <v>397</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>365</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>180</v>
@@ -9639,10 +9728,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>362</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/desarrollo/rigk-sg-back/files/templates/Declaraciones_CI_YYYY.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/Declaraciones_CI_YYYY.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2574" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3078" uniqueCount="481">
   <si>
     <t>ID empresa</t>
   </si>
@@ -655,6 +655,39 @@
     <t>usuario excel-1 excel-1</t>
   </si>
   <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>empresa test excel 1</t>
+  </si>
+  <si>
+    <t>Comercial LML</t>
+  </si>
+  <si>
+    <t>76084454-3</t>
+  </si>
+  <si>
+    <t>usuario TE1 zoro</t>
+  </si>
+  <si>
+    <t>JA-1</t>
+  </si>
+  <si>
+    <t>Juan1</t>
+  </si>
+  <si>
+    <t>establecimiento 1</t>
+  </si>
+  <si>
+    <t>Región de Tarapacá</t>
+  </si>
+  <si>
+    <t>Huara</t>
+  </si>
+  <si>
+    <t>27/12/2023</t>
+  </si>
+  <si>
     <t>PR-2</t>
   </si>
   <si>
@@ -823,12 +856,6 @@
     <t>EMPRESA ZOR-ESTATUS</t>
   </si>
   <si>
-    <t>ZOR-PROD-1</t>
-  </si>
-  <si>
-    <t>EMPRESA ZOR-PROD-1</t>
-  </si>
-  <si>
     <t>ZOR-ESTATUS5</t>
   </si>
   <si>
@@ -877,6 +904,18 @@
     <t>EMPRESA ZOR-ETL2</t>
   </si>
   <si>
+    <t>EMV</t>
+  </si>
+  <si>
+    <t>EMPRESA MV</t>
+  </si>
+  <si>
+    <t>EMV2</t>
+  </si>
+  <si>
+    <t>EMPRESA MV2</t>
+  </si>
+  <si>
     <t>PR-13</t>
   </si>
   <si>
@@ -934,6 +973,30 @@
     <t>EMPRESA ZORO MEZCLADOS</t>
   </si>
   <si>
+    <t>PAYLOAD</t>
+  </si>
+  <si>
+    <t>EMPRESA PAYLOAD</t>
+  </si>
+  <si>
+    <t>st-3</t>
+  </si>
+  <si>
+    <t>smoke test 3</t>
+  </si>
+  <si>
+    <t>JA-2</t>
+  </si>
+  <si>
+    <t>JuanTest2</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>zoro prueba</t>
+  </si>
+  <si>
     <t>PR-67</t>
   </si>
   <si>
@@ -943,28 +1006,61 @@
     <t>Arnau</t>
   </si>
   <si>
-    <t>JA-1</t>
-  </si>
-  <si>
-    <t>Juan1</t>
-  </si>
-  <si>
-    <t>JA-2</t>
-  </si>
-  <si>
-    <t>JuanTest2</t>
-  </si>
-  <si>
-    <t>st-1</t>
-  </si>
-  <si>
-    <t>Smoke test 1</t>
-  </si>
-  <si>
-    <t>st-2</t>
-  </si>
-  <si>
-    <t>Smoke test 2</t>
+    <t>ZOR-GES</t>
+  </si>
+  <si>
+    <t>EMPRESA ZOR-GES</t>
+  </si>
+  <si>
+    <t>ZOR-CM</t>
+  </si>
+  <si>
+    <t>EMPRESA ZORO CARGA MASIVA</t>
+  </si>
+  <si>
+    <t>ZCM1</t>
+  </si>
+  <si>
+    <t>12207774-8</t>
+  </si>
+  <si>
+    <t>EMPRESA ZORO CARGA MASIVA 1</t>
+  </si>
+  <si>
+    <t>ZOR-CI</t>
+  </si>
+  <si>
+    <t>EMPRESA ZOR CI</t>
+  </si>
+  <si>
+    <t>ZOR-CI2</t>
+  </si>
+  <si>
+    <t>12844863-2</t>
+  </si>
+  <si>
+    <t>EMPRESA ZOR CI 2</t>
+  </si>
+  <si>
+    <t>EMP-ZOR-COM</t>
+  </si>
+  <si>
+    <t>EMPRESA ZORO COMUNA</t>
+  </si>
+  <si>
+    <t>P0001</t>
+  </si>
+  <si>
+    <t>81094100-6</t>
+  </si>
+  <si>
+    <t>Colun</t>
+  </si>
+  <si>
+    <t>EDCI1</t>
+  </si>
+  <si>
+    <t>EMPRESA DASHBOARD CI</t>
   </si>
   <si>
     <t>EDCI3</t>
@@ -973,69 +1069,6 @@
     <t>EMPRESA DASHBOARD CI3</t>
   </si>
   <si>
-    <t>ZCM1</t>
-  </si>
-  <si>
-    <t>12207774-8</t>
-  </si>
-  <si>
-    <t>EMPRESA ZORO CARGA MASIVA 1</t>
-  </si>
-  <si>
-    <t>EDCI1</t>
-  </si>
-  <si>
-    <t>EMPRESA DASHBOARD CI</t>
-  </si>
-  <si>
-    <t>st-5</t>
-  </si>
-  <si>
-    <t>Smoke test</t>
-  </si>
-  <si>
-    <t>ZOR-GES</t>
-  </si>
-  <si>
-    <t>EMPRESA ZOR-GES</t>
-  </si>
-  <si>
-    <t>ZOR-CM</t>
-  </si>
-  <si>
-    <t>EMPRESA ZORO CARGA MASIVA</t>
-  </si>
-  <si>
-    <t>ZOR-CI</t>
-  </si>
-  <si>
-    <t>EMPRESA ZOR CI</t>
-  </si>
-  <si>
-    <t>ZOR-CI2</t>
-  </si>
-  <si>
-    <t>12844863-2</t>
-  </si>
-  <si>
-    <t>EMPRESA ZOR CI 2</t>
-  </si>
-  <si>
-    <t>EMP-ZOR-COM</t>
-  </si>
-  <si>
-    <t>EMPRESA ZORO COMUNA</t>
-  </si>
-  <si>
-    <t>P0001</t>
-  </si>
-  <si>
-    <t>81094100-6</t>
-  </si>
-  <si>
-    <t>Colun</t>
-  </si>
-  <si>
     <t>ZCM</t>
   </si>
   <si>
@@ -1081,6 +1114,192 @@
     <t>empresa dashboard 2</t>
   </si>
   <si>
+    <t>AZOR</t>
+  </si>
+  <si>
+    <t>APROBACION MASIVA GESTOS</t>
+  </si>
+  <si>
+    <t>AZOR2</t>
+  </si>
+  <si>
+    <t>EMPRESA AZOR 2</t>
+  </si>
+  <si>
+    <t>Z-3</t>
+  </si>
+  <si>
+    <t>empresa zoro2</t>
+  </si>
+  <si>
+    <t>z-5</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>P0005</t>
+  </si>
+  <si>
+    <t>86778100-5</t>
+  </si>
+  <si>
+    <t>Plásticos Haddad</t>
+  </si>
+  <si>
+    <t>PR-3</t>
+  </si>
+  <si>
+    <t>ASDSA</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>empresa test 1</t>
+  </si>
+  <si>
+    <t>test-4</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test-5</t>
+  </si>
+  <si>
+    <t>P0028</t>
+  </si>
+  <si>
+    <t>96606310-6</t>
+  </si>
+  <si>
+    <t>Bredenmaster</t>
+  </si>
+  <si>
+    <t>P0115</t>
+  </si>
+  <si>
+    <t>92805000-9</t>
+  </si>
+  <si>
+    <t>ABB</t>
+  </si>
+  <si>
+    <t>P0055</t>
+  </si>
+  <si>
+    <t>76222470-4</t>
+  </si>
+  <si>
+    <t>Socotech</t>
+  </si>
+  <si>
+    <t>P0075</t>
+  </si>
+  <si>
+    <t>96691060-7</t>
+  </si>
+  <si>
+    <t>KSB Chile</t>
+  </si>
+  <si>
+    <t>P0121</t>
+  </si>
+  <si>
+    <t>96518530-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impresos Lahosa </t>
+  </si>
+  <si>
+    <t>P0058</t>
+  </si>
+  <si>
+    <t>92846000-2</t>
+  </si>
+  <si>
+    <t>Harting Ltda</t>
+  </si>
+  <si>
+    <t>P0088</t>
+  </si>
+  <si>
+    <t>93797000-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occidental Chemical Chile </t>
+  </si>
+  <si>
+    <t>P0035</t>
+  </si>
+  <si>
+    <t>78561520-4</t>
+  </si>
+  <si>
+    <t>Pincu y Gutierrez SPA</t>
+  </si>
+  <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>76555916-2</t>
+  </si>
+  <si>
+    <t>Scholle IPN</t>
+  </si>
+  <si>
+    <t>P0018</t>
+  </si>
+  <si>
+    <t>82524300-3</t>
+  </si>
+  <si>
+    <t>Veterquímica</t>
+  </si>
+  <si>
+    <t>Z-4</t>
+  </si>
+  <si>
+    <t>das</t>
+  </si>
+  <si>
+    <t>P0010</t>
+  </si>
+  <si>
+    <t>78709600-K</t>
+  </si>
+  <si>
+    <t>Solchem SpA</t>
+  </si>
+  <si>
+    <t>E-MV</t>
+  </si>
+  <si>
+    <t>EMPRESA MEDIOS DE VERIFICACION</t>
+  </si>
+  <si>
+    <t>E-MV2</t>
+  </si>
+  <si>
+    <t>EMPRESA MEDIOS DE VERIFICACION 2</t>
+  </si>
+  <si>
+    <t>ZORODJ</t>
+  </si>
+  <si>
+    <t>empresa zoro DJ</t>
+  </si>
+  <si>
+    <t>EDJ</t>
+  </si>
+  <si>
+    <t>EMPRESA EDJ</t>
+  </si>
+  <si>
+    <t>ZDJU</t>
+  </si>
+  <si>
     <t>Notas: Todo en Toneladas. Totales anuales del año de ejercicio (año que se declara)</t>
   </si>
   <si>
@@ -1096,7 +1315,7 @@
     <t>Peso Total Declarado</t>
   </si>
   <si>
-    <t>11364413,70</t>
+    <t>11464414,70</t>
   </si>
   <si>
     <t>Peso Total Valorizado</t>
@@ -1108,13 +1327,13 @@
     <t xml:space="preserve">Total Reciclaje Papel/Cartón (Reciclaje Mecánico + Reciclaje Interno) </t>
   </si>
   <si>
-    <t>1119000,11</t>
+    <t>1119001,11</t>
   </si>
   <si>
     <t xml:space="preserve">Total Reciclaje Plástico (Reciclaje Mecánico + Reciclaje Interno) </t>
   </si>
   <si>
-    <t>5012,12</t>
+    <t>105012,12</t>
   </si>
   <si>
     <t xml:space="preserve">Total Reciclaje Metal (Reciclaje Mecánico + Reciclaje Interno) </t>
@@ -1617,7 +1836,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R167"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="12" customWidth="1"/>
@@ -5447,122 +5666,122 @@
         <v>213</v>
       </c>
       <c r="B69" t="s">
+        <v>19</v>
+      </c>
+      <c r="C69" t="s">
         <v>214</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
+        <v>23</v>
+      </c>
+      <c r="G69" t="s">
+        <v>111</v>
+      </c>
+      <c r="H69" t="s">
+        <v>25</v>
+      </c>
+      <c r="I69" t="s">
+        <v>26</v>
+      </c>
+      <c r="J69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" t="s">
+        <v>73</v>
+      </c>
+      <c r="L69" t="s">
+        <v>157</v>
+      </c>
+      <c r="M69" t="s">
+        <v>203</v>
+      </c>
+      <c r="N69" t="s">
+        <v>31</v>
+      </c>
+      <c r="O69" t="s">
+        <v>204</v>
+      </c>
+      <c r="P69" t="s">
         <v>215</v>
       </c>
-      <c r="D69" t="s">
-        <v>31</v>
-      </c>
-      <c r="E69" t="s">
-        <v>31</v>
-      </c>
-      <c r="F69" t="s">
-        <v>31</v>
-      </c>
-      <c r="G69" t="s">
-        <v>31</v>
-      </c>
-      <c r="H69" t="s">
-        <v>31</v>
-      </c>
-      <c r="I69" t="s">
-        <v>31</v>
-      </c>
-      <c r="J69" t="s">
-        <v>31</v>
-      </c>
-      <c r="K69" t="s">
-        <v>31</v>
-      </c>
-      <c r="L69" t="s">
-        <v>31</v>
-      </c>
-      <c r="M69" t="s">
-        <v>31</v>
-      </c>
-      <c r="N69" t="s">
-        <v>31</v>
-      </c>
-      <c r="O69" t="s">
-        <v>31</v>
-      </c>
-      <c r="P69" t="s">
-        <v>31</v>
-      </c>
       <c r="Q69" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="R69" t="s">
-        <v>31</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B70" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D70" t="s">
-        <v>31</v>
+        <v>220</v>
       </c>
       <c r="E70" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>221</v>
       </c>
       <c r="G70" t="s">
-        <v>31</v>
+        <v>222</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I70" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K70" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="L70" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="M70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N70" t="s">
         <v>31</v>
       </c>
       <c r="O70" t="s">
-        <v>31</v>
+        <v>223</v>
       </c>
       <c r="P70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q70" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="R70" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B71" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
         <v>31</v>
@@ -5612,13 +5831,13 @@
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C72" t="s">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="D72" t="s">
         <v>31</v>
@@ -5668,13 +5887,13 @@
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C73" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D73" t="s">
         <v>31</v>
@@ -5724,13 +5943,13 @@
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="B74" t="s">
         <v>19</v>
       </c>
       <c r="C74" t="s">
-        <v>221</v>
+        <v>181</v>
       </c>
       <c r="D74" t="s">
         <v>31</v>
@@ -5780,13 +5999,13 @@
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="B75" t="s">
         <v>19</v>
       </c>
       <c r="C75" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D75" t="s">
         <v>31</v>
@@ -5836,13 +6055,13 @@
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="B76" t="s">
         <v>19</v>
       </c>
       <c r="C76" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="D76" t="s">
         <v>31</v>
@@ -5892,13 +6111,13 @@
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
         <v>19</v>
       </c>
       <c r="C77" t="s">
-        <v>205</v>
+        <v>233</v>
       </c>
       <c r="D77" t="s">
         <v>31</v>
@@ -5948,13 +6167,13 @@
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
         <v>19</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="D78" t="s">
         <v>31</v>
@@ -6004,13 +6223,13 @@
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B79" t="s">
         <v>19</v>
       </c>
       <c r="C79" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D79" t="s">
         <v>31</v>
@@ -6060,13 +6279,13 @@
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B80" t="s">
         <v>19</v>
       </c>
       <c r="C80" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="D80" t="s">
         <v>31</v>
@@ -6116,13 +6335,13 @@
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B81" t="s">
         <v>19</v>
       </c>
       <c r="C81" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="D81" t="s">
         <v>31</v>
@@ -6172,13 +6391,13 @@
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="B82" t="s">
         <v>19</v>
       </c>
       <c r="C82" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D82" t="s">
         <v>31</v>
@@ -6228,13 +6447,13 @@
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="B83" t="s">
         <v>19</v>
       </c>
       <c r="C83" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D83" t="s">
         <v>31</v>
@@ -6284,13 +6503,13 @@
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="B84" t="s">
         <v>19</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="D84" t="s">
         <v>31</v>
@@ -6340,13 +6559,13 @@
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="B85" t="s">
         <v>19</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D85" t="s">
         <v>31</v>
@@ -6396,13 +6615,13 @@
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>19</v>
       </c>
       <c r="C86" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D86" t="s">
         <v>31</v>
@@ -6452,13 +6671,13 @@
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B87" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C87" t="s">
-        <v>64</v>
+        <v>251</v>
       </c>
       <c r="D87" t="s">
         <v>31</v>
@@ -6508,13 +6727,13 @@
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>253</v>
       </c>
       <c r="C88" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="D88" t="s">
         <v>31</v>
@@ -6564,13 +6783,13 @@
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C89" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="D89" t="s">
         <v>31</v>
@@ -6620,13 +6839,13 @@
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B90" t="s">
         <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="D90" t="s">
         <v>31</v>
@@ -6676,13 +6895,13 @@
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B91" t="s">
         <v>19</v>
       </c>
       <c r="C91" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D91" t="s">
         <v>31</v>
@@ -6732,13 +6951,13 @@
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="B92" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D92" t="s">
         <v>31</v>
@@ -6788,13 +7007,13 @@
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C93" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="D93" t="s">
         <v>31</v>
@@ -6844,13 +7063,13 @@
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B94" t="s">
         <v>48</v>
       </c>
       <c r="C94" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
         <v>31</v>
@@ -6900,13 +7119,13 @@
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B95" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C95" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="D95" t="s">
         <v>31</v>
@@ -6956,13 +7175,13 @@
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B96" t="s">
         <v>48</v>
       </c>
       <c r="C96" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="D96" t="s">
         <v>31</v>
@@ -7012,13 +7231,13 @@
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B97" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D97" t="s">
         <v>31</v>
@@ -7068,13 +7287,13 @@
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B98" t="s">
         <v>48</v>
       </c>
       <c r="C98" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="D98" t="s">
         <v>31</v>
@@ -7124,13 +7343,13 @@
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="D99" t="s">
         <v>31</v>
@@ -7180,13 +7399,13 @@
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="D100" t="s">
         <v>31</v>
@@ -7236,13 +7455,13 @@
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B101" t="s">
         <v>19</v>
       </c>
       <c r="C101" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="D101" t="s">
         <v>31</v>
@@ -7292,13 +7511,13 @@
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B102" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C102" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="D102" t="s">
         <v>31</v>
@@ -7348,13 +7567,13 @@
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B103" t="s">
         <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
         <v>31</v>
@@ -7404,13 +7623,13 @@
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B104" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C104" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="D104" t="s">
         <v>31</v>
@@ -7460,13 +7679,13 @@
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B105" t="s">
         <v>19</v>
       </c>
       <c r="C105" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="D105" t="s">
         <v>31</v>
@@ -7516,13 +7735,13 @@
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B106" t="s">
         <v>19</v>
       </c>
       <c r="C106" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="D106" t="s">
         <v>31</v>
@@ -7572,13 +7791,13 @@
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B107" t="s">
         <v>19</v>
       </c>
       <c r="C107" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="D107" t="s">
         <v>31</v>
@@ -7628,13 +7847,13 @@
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="B108" t="s">
         <v>19</v>
       </c>
       <c r="C108" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="D108" t="s">
         <v>31</v>
@@ -7684,13 +7903,13 @@
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="B109" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C109" t="s">
-        <v>140</v>
+        <v>295</v>
       </c>
       <c r="D109" t="s">
         <v>31</v>
@@ -7740,13 +7959,13 @@
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="B110" t="s">
-        <v>289</v>
+        <v>19</v>
       </c>
       <c r="C110" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="D110" t="s">
         <v>31</v>
@@ -7796,13 +8015,13 @@
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s">
         <v>19</v>
       </c>
       <c r="C111" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="D111" t="s">
         <v>31</v>
@@ -7852,13 +8071,13 @@
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="B112" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C112" t="s">
-        <v>294</v>
+        <v>140</v>
       </c>
       <c r="D112" t="s">
         <v>31</v>
@@ -7908,13 +8127,13 @@
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B113" t="s">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="C113" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="D113" t="s">
         <v>31</v>
@@ -7964,13 +8183,13 @@
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B114" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="D114" t="s">
         <v>31</v>
@@ -8020,13 +8239,13 @@
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="B115" t="s">
-        <v>300</v>
+        <v>48</v>
       </c>
       <c r="C115" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D115" t="s">
         <v>31</v>
@@ -8076,13 +8295,13 @@
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B116" t="s">
         <v>48</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="D116" t="s">
         <v>31</v>
@@ -8132,13 +8351,13 @@
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="D117" t="s">
         <v>31</v>
@@ -8188,13 +8407,13 @@
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="C118" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="D118" t="s">
         <v>31</v>
@@ -8244,13 +8463,13 @@
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B119" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C119" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D119" t="s">
         <v>31</v>
@@ -8300,13 +8519,13 @@
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B120" t="s">
-        <v>141</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="D120" t="s">
         <v>31</v>
@@ -8356,13 +8575,13 @@
     </row>
     <row r="121" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C121" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D121" t="s">
         <v>31</v>
@@ -8412,13 +8631,13 @@
     </row>
     <row r="122" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B122" t="s">
         <v>141</v>
       </c>
       <c r="C122" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="D122" t="s">
         <v>31</v>
@@ -8468,13 +8687,13 @@
     </row>
     <row r="123" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B123" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="C123" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="D123" t="s">
         <v>31</v>
@@ -8524,13 +8743,13 @@
     </row>
     <row r="124" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B124" t="s">
-        <v>320</v>
+        <v>19</v>
       </c>
       <c r="C124" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D124" t="s">
         <v>31</v>
@@ -8580,13 +8799,13 @@
     </row>
     <row r="125" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B125" t="s">
-        <v>19</v>
+        <v>328</v>
       </c>
       <c r="C125" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="D125" t="s">
         <v>31</v>
@@ -8636,13 +8855,13 @@
     </row>
     <row r="126" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B126" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="C126" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="D126" t="s">
         <v>31</v>
@@ -8692,13 +8911,13 @@
     </row>
     <row r="127" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B127" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C127" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="D127" t="s">
         <v>31</v>
@@ -8748,13 +8967,13 @@
     </row>
     <row r="128" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B128" t="s">
-        <v>19</v>
+        <v>335</v>
       </c>
       <c r="C128" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="D128" t="s">
         <v>31</v>
@@ -8804,13 +9023,13 @@
     </row>
     <row r="129" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B129" t="s">
         <v>19</v>
       </c>
       <c r="C129" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="D129" t="s">
         <v>31</v>
@@ -8860,13 +9079,13 @@
     </row>
     <row r="130" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="C130" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="D130" t="s">
         <v>31</v>
@@ -8916,13 +9135,13 @@
     </row>
     <row r="131" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B131" t="s">
         <v>19</v>
       </c>
       <c r="C131" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="D131" t="s">
         <v>31</v>
@@ -8972,13 +9191,13 @@
     </row>
     <row r="132" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B132" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C132" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="D132" t="s">
         <v>31</v>
@@ -9028,13 +9247,13 @@
     </row>
     <row r="133" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B133" t="s">
-        <v>341</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="D133" t="s">
         <v>31</v>
@@ -9084,13 +9303,13 @@
     </row>
     <row r="134" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B134" t="s">
         <v>48</v>
       </c>
       <c r="C134" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="D134" t="s">
         <v>31</v>
@@ -9140,13 +9359,13 @@
     </row>
     <row r="135" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>352</v>
       </c>
       <c r="C135" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D135" t="s">
         <v>31</v>
@@ -9196,13 +9415,13 @@
     </row>
     <row r="136" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B136" t="s">
         <v>48</v>
       </c>
       <c r="C136" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="D136" t="s">
         <v>31</v>
@@ -9252,13 +9471,13 @@
     </row>
     <row r="137" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>199</v>
       </c>
       <c r="C137" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="D137" t="s">
         <v>31</v>
@@ -9308,13 +9527,13 @@
     </row>
     <row r="138" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="C138" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D138" t="s">
         <v>31</v>
@@ -9364,57 +9583,1625 @@
     </row>
     <row r="139" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
+        <v>360</v>
+      </c>
+      <c r="B139" t="s">
+        <v>19</v>
+      </c>
+      <c r="C139" t="s">
+        <v>361</v>
+      </c>
+      <c r="D139" t="s">
+        <v>31</v>
+      </c>
+      <c r="E139" t="s">
+        <v>31</v>
+      </c>
+      <c r="F139" t="s">
+        <v>31</v>
+      </c>
+      <c r="G139" t="s">
+        <v>31</v>
+      </c>
+      <c r="H139" t="s">
+        <v>31</v>
+      </c>
+      <c r="I139" t="s">
+        <v>31</v>
+      </c>
+      <c r="J139" t="s">
+        <v>31</v>
+      </c>
+      <c r="K139" t="s">
+        <v>31</v>
+      </c>
+      <c r="L139" t="s">
+        <v>31</v>
+      </c>
+      <c r="M139" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" t="s">
+        <v>31</v>
+      </c>
+      <c r="O139" t="s">
+        <v>31</v>
+      </c>
+      <c r="P139" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q139" t="s">
+        <v>31</v>
+      </c>
+      <c r="R139" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>362</v>
+      </c>
+      <c r="B140" t="s">
+        <v>19</v>
+      </c>
+      <c r="C140" t="s">
+        <v>363</v>
+      </c>
+      <c r="D140" t="s">
+        <v>31</v>
+      </c>
+      <c r="E140" t="s">
+        <v>31</v>
+      </c>
+      <c r="F140" t="s">
+        <v>31</v>
+      </c>
+      <c r="G140" t="s">
+        <v>31</v>
+      </c>
+      <c r="H140" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" t="s">
+        <v>31</v>
+      </c>
+      <c r="J140" t="s">
+        <v>31</v>
+      </c>
+      <c r="K140" t="s">
+        <v>31</v>
+      </c>
+      <c r="L140" t="s">
+        <v>31</v>
+      </c>
+      <c r="M140" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" t="s">
+        <v>31</v>
+      </c>
+      <c r="O140" t="s">
+        <v>31</v>
+      </c>
+      <c r="P140" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q140" t="s">
+        <v>31</v>
+      </c>
+      <c r="R140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>364</v>
+      </c>
+      <c r="B141" t="s">
+        <v>48</v>
+      </c>
+      <c r="C141" t="s">
+        <v>365</v>
+      </c>
+      <c r="D141" t="s">
+        <v>31</v>
+      </c>
+      <c r="E141" t="s">
+        <v>31</v>
+      </c>
+      <c r="F141" t="s">
+        <v>31</v>
+      </c>
+      <c r="G141" t="s">
+        <v>31</v>
+      </c>
+      <c r="H141" t="s">
+        <v>31</v>
+      </c>
+      <c r="I141" t="s">
+        <v>31</v>
+      </c>
+      <c r="J141" t="s">
+        <v>31</v>
+      </c>
+      <c r="K141" t="s">
+        <v>31</v>
+      </c>
+      <c r="L141" t="s">
+        <v>31</v>
+      </c>
+      <c r="M141" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" t="s">
+        <v>31</v>
+      </c>
+      <c r="O141" t="s">
+        <v>31</v>
+      </c>
+      <c r="P141" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q141" t="s">
+        <v>31</v>
+      </c>
+      <c r="R141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>366</v>
+      </c>
+      <c r="B142" t="s">
+        <v>48</v>
+      </c>
+      <c r="C142" t="s">
+        <v>367</v>
+      </c>
+      <c r="D142" t="s">
+        <v>31</v>
+      </c>
+      <c r="E142" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" t="s">
+        <v>31</v>
+      </c>
+      <c r="H142" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" t="s">
+        <v>31</v>
+      </c>
+      <c r="J142" t="s">
+        <v>31</v>
+      </c>
+      <c r="K142" t="s">
+        <v>31</v>
+      </c>
+      <c r="L142" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" t="s">
+        <v>31</v>
+      </c>
+      <c r="O142" t="s">
+        <v>31</v>
+      </c>
+      <c r="P142" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q142" t="s">
+        <v>31</v>
+      </c>
+      <c r="R142" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>368</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>369</v>
+      </c>
+      <c r="D143" t="s">
+        <v>31</v>
+      </c>
+      <c r="E143" t="s">
+        <v>31</v>
+      </c>
+      <c r="F143" t="s">
+        <v>31</v>
+      </c>
+      <c r="G143" t="s">
+        <v>31</v>
+      </c>
+      <c r="H143" t="s">
+        <v>31</v>
+      </c>
+      <c r="I143" t="s">
+        <v>31</v>
+      </c>
+      <c r="J143" t="s">
+        <v>31</v>
+      </c>
+      <c r="K143" t="s">
+        <v>31</v>
+      </c>
+      <c r="L143" t="s">
+        <v>31</v>
+      </c>
+      <c r="M143" t="s">
+        <v>31</v>
+      </c>
+      <c r="N143" t="s">
+        <v>31</v>
+      </c>
+      <c r="O143" t="s">
+        <v>31</v>
+      </c>
+      <c r="P143" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q143" t="s">
+        <v>31</v>
+      </c>
+      <c r="R143" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>370</v>
+      </c>
+      <c r="B144" t="s">
+        <v>48</v>
+      </c>
+      <c r="C144" t="s">
+        <v>371</v>
+      </c>
+      <c r="D144" t="s">
+        <v>31</v>
+      </c>
+      <c r="E144" t="s">
+        <v>31</v>
+      </c>
+      <c r="F144" t="s">
+        <v>31</v>
+      </c>
+      <c r="G144" t="s">
+        <v>31</v>
+      </c>
+      <c r="H144" t="s">
+        <v>31</v>
+      </c>
+      <c r="I144" t="s">
+        <v>31</v>
+      </c>
+      <c r="J144" t="s">
+        <v>31</v>
+      </c>
+      <c r="K144" t="s">
+        <v>31</v>
+      </c>
+      <c r="L144" t="s">
+        <v>31</v>
+      </c>
+      <c r="M144" t="s">
+        <v>31</v>
+      </c>
+      <c r="N144" t="s">
+        <v>31</v>
+      </c>
+      <c r="O144" t="s">
+        <v>31</v>
+      </c>
+      <c r="P144" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q144" t="s">
+        <v>31</v>
+      </c>
+      <c r="R144" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>372</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145" t="s">
+        <v>373</v>
+      </c>
+      <c r="D145" t="s">
+        <v>31</v>
+      </c>
+      <c r="E145" t="s">
+        <v>31</v>
+      </c>
+      <c r="F145" t="s">
+        <v>31</v>
+      </c>
+      <c r="G145" t="s">
+        <v>31</v>
+      </c>
+      <c r="H145" t="s">
+        <v>31</v>
+      </c>
+      <c r="I145" t="s">
+        <v>31</v>
+      </c>
+      <c r="J145" t="s">
+        <v>31</v>
+      </c>
+      <c r="K145" t="s">
+        <v>31</v>
+      </c>
+      <c r="L145" t="s">
+        <v>31</v>
+      </c>
+      <c r="M145" t="s">
+        <v>31</v>
+      </c>
+      <c r="N145" t="s">
+        <v>31</v>
+      </c>
+      <c r="O145" t="s">
+        <v>31</v>
+      </c>
+      <c r="P145" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q145" t="s">
+        <v>31</v>
+      </c>
+      <c r="R145" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>374</v>
+      </c>
+      <c r="B146" t="s">
+        <v>375</v>
+      </c>
+      <c r="C146" t="s">
+        <v>376</v>
+      </c>
+      <c r="D146" t="s">
+        <v>31</v>
+      </c>
+      <c r="E146" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" t="s">
+        <v>31</v>
+      </c>
+      <c r="G146" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" t="s">
+        <v>31</v>
+      </c>
+      <c r="M146" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" t="s">
+        <v>31</v>
+      </c>
+      <c r="O146" t="s">
+        <v>31</v>
+      </c>
+      <c r="P146" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q146" t="s">
+        <v>31</v>
+      </c>
+      <c r="R146" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" t="s">
+        <v>141</v>
+      </c>
+      <c r="C147" t="s">
+        <v>378</v>
+      </c>
+      <c r="D147" t="s">
+        <v>31</v>
+      </c>
+      <c r="E147" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" t="s">
+        <v>31</v>
+      </c>
+      <c r="G147" t="s">
+        <v>31</v>
+      </c>
+      <c r="H147" t="s">
+        <v>31</v>
+      </c>
+      <c r="I147" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" t="s">
+        <v>31</v>
+      </c>
+      <c r="K147" t="s">
+        <v>31</v>
+      </c>
+      <c r="L147" t="s">
+        <v>31</v>
+      </c>
+      <c r="M147" t="s">
+        <v>31</v>
+      </c>
+      <c r="N147" t="s">
+        <v>31</v>
+      </c>
+      <c r="O147" t="s">
+        <v>31</v>
+      </c>
+      <c r="P147" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q147" t="s">
+        <v>31</v>
+      </c>
+      <c r="R147" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="C148" t="s">
+        <v>380</v>
+      </c>
+      <c r="D148" t="s">
+        <v>31</v>
+      </c>
+      <c r="E148" t="s">
+        <v>31</v>
+      </c>
+      <c r="F148" t="s">
+        <v>31</v>
+      </c>
+      <c r="G148" t="s">
+        <v>31</v>
+      </c>
+      <c r="H148" t="s">
+        <v>31</v>
+      </c>
+      <c r="I148" t="s">
+        <v>31</v>
+      </c>
+      <c r="J148" t="s">
+        <v>31</v>
+      </c>
+      <c r="K148" t="s">
+        <v>31</v>
+      </c>
+      <c r="L148" t="s">
+        <v>31</v>
+      </c>
+      <c r="M148" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" t="s">
+        <v>31</v>
+      </c>
+      <c r="O148" t="s">
+        <v>31</v>
+      </c>
+      <c r="P148" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q148" t="s">
+        <v>31</v>
+      </c>
+      <c r="R148" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>381</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149" t="s">
+        <v>382</v>
+      </c>
+      <c r="D149" t="s">
+        <v>31</v>
+      </c>
+      <c r="E149" t="s">
+        <v>31</v>
+      </c>
+      <c r="F149" t="s">
+        <v>31</v>
+      </c>
+      <c r="G149" t="s">
+        <v>31</v>
+      </c>
+      <c r="H149" t="s">
+        <v>31</v>
+      </c>
+      <c r="I149" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" t="s">
+        <v>31</v>
+      </c>
+      <c r="K149" t="s">
+        <v>31</v>
+      </c>
+      <c r="L149" t="s">
+        <v>31</v>
+      </c>
+      <c r="M149" t="s">
+        <v>31</v>
+      </c>
+      <c r="N149" t="s">
+        <v>31</v>
+      </c>
+      <c r="O149" t="s">
+        <v>31</v>
+      </c>
+      <c r="P149" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q149" t="s">
+        <v>31</v>
+      </c>
+      <c r="R149" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>383</v>
+      </c>
+      <c r="B150" t="s">
+        <v>19</v>
+      </c>
+      <c r="C150" t="s">
+        <v>382</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" t="s">
+        <v>31</v>
+      </c>
+      <c r="F150" t="s">
+        <v>31</v>
+      </c>
+      <c r="G150" t="s">
+        <v>31</v>
+      </c>
+      <c r="H150" t="s">
+        <v>31</v>
+      </c>
+      <c r="I150" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" t="s">
+        <v>31</v>
+      </c>
+      <c r="K150" t="s">
+        <v>31</v>
+      </c>
+      <c r="L150" t="s">
+        <v>31</v>
+      </c>
+      <c r="M150" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" t="s">
+        <v>31</v>
+      </c>
+      <c r="O150" t="s">
+        <v>31</v>
+      </c>
+      <c r="P150" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q150" t="s">
+        <v>31</v>
+      </c>
+      <c r="R150" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>384</v>
+      </c>
+      <c r="B151" t="s">
+        <v>385</v>
+      </c>
+      <c r="C151" t="s">
+        <v>386</v>
+      </c>
+      <c r="D151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" t="s">
+        <v>31</v>
+      </c>
+      <c r="F151" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
+        <v>31</v>
+      </c>
+      <c r="H151" t="s">
+        <v>31</v>
+      </c>
+      <c r="I151" t="s">
+        <v>31</v>
+      </c>
+      <c r="J151" t="s">
+        <v>31</v>
+      </c>
+      <c r="K151" t="s">
+        <v>31</v>
+      </c>
+      <c r="L151" t="s">
+        <v>31</v>
+      </c>
+      <c r="M151" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" t="s">
+        <v>31</v>
+      </c>
+      <c r="O151" t="s">
+        <v>31</v>
+      </c>
+      <c r="P151" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q151" t="s">
+        <v>31</v>
+      </c>
+      <c r="R151" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>387</v>
+      </c>
+      <c r="B152" t="s">
+        <v>388</v>
+      </c>
+      <c r="C152" t="s">
+        <v>389</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" t="s">
+        <v>31</v>
+      </c>
+      <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" t="s">
+        <v>31</v>
+      </c>
+      <c r="I152" t="s">
+        <v>31</v>
+      </c>
+      <c r="J152" t="s">
+        <v>31</v>
+      </c>
+      <c r="K152" t="s">
+        <v>31</v>
+      </c>
+      <c r="L152" t="s">
+        <v>31</v>
+      </c>
+      <c r="M152" t="s">
+        <v>31</v>
+      </c>
+      <c r="N152" t="s">
+        <v>31</v>
+      </c>
+      <c r="O152" t="s">
+        <v>31</v>
+      </c>
+      <c r="P152" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q152" t="s">
+        <v>31</v>
+      </c>
+      <c r="R152" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>390</v>
+      </c>
+      <c r="B153" t="s">
+        <v>391</v>
+      </c>
+      <c r="C153" t="s">
+        <v>392</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" t="s">
+        <v>31</v>
+      </c>
+      <c r="F153" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" t="s">
+        <v>31</v>
+      </c>
+      <c r="I153" t="s">
+        <v>31</v>
+      </c>
+      <c r="J153" t="s">
+        <v>31</v>
+      </c>
+      <c r="K153" t="s">
+        <v>31</v>
+      </c>
+      <c r="L153" t="s">
+        <v>31</v>
+      </c>
+      <c r="M153" t="s">
+        <v>31</v>
+      </c>
+      <c r="N153" t="s">
+        <v>31</v>
+      </c>
+      <c r="O153" t="s">
+        <v>31</v>
+      </c>
+      <c r="P153" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q153" t="s">
+        <v>31</v>
+      </c>
+      <c r="R153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>393</v>
+      </c>
+      <c r="B154" t="s">
+        <v>394</v>
+      </c>
+      <c r="C154" t="s">
+        <v>395</v>
+      </c>
+      <c r="D154" t="s">
+        <v>31</v>
+      </c>
+      <c r="E154" t="s">
+        <v>31</v>
+      </c>
+      <c r="F154" t="s">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>31</v>
+      </c>
+      <c r="H154" t="s">
+        <v>31</v>
+      </c>
+      <c r="I154" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" t="s">
+        <v>31</v>
+      </c>
+      <c r="K154" t="s">
+        <v>31</v>
+      </c>
+      <c r="L154" t="s">
+        <v>31</v>
+      </c>
+      <c r="M154" t="s">
+        <v>31</v>
+      </c>
+      <c r="N154" t="s">
+        <v>31</v>
+      </c>
+      <c r="O154" t="s">
+        <v>31</v>
+      </c>
+      <c r="P154" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q154" t="s">
+        <v>31</v>
+      </c>
+      <c r="R154" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>396</v>
+      </c>
+      <c r="B155" t="s">
+        <v>397</v>
+      </c>
+      <c r="C155" t="s">
+        <v>398</v>
+      </c>
+      <c r="D155" t="s">
+        <v>31</v>
+      </c>
+      <c r="E155" t="s">
+        <v>31</v>
+      </c>
+      <c r="F155" t="s">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>31</v>
+      </c>
+      <c r="H155" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" t="s">
+        <v>31</v>
+      </c>
+      <c r="J155" t="s">
+        <v>31</v>
+      </c>
+      <c r="K155" t="s">
+        <v>31</v>
+      </c>
+      <c r="L155" t="s">
+        <v>31</v>
+      </c>
+      <c r="M155" t="s">
+        <v>31</v>
+      </c>
+      <c r="N155" t="s">
+        <v>31</v>
+      </c>
+      <c r="O155" t="s">
+        <v>31</v>
+      </c>
+      <c r="P155" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q155" t="s">
+        <v>31</v>
+      </c>
+      <c r="R155" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>399</v>
+      </c>
+      <c r="B156" t="s">
+        <v>400</v>
+      </c>
+      <c r="C156" t="s">
+        <v>401</v>
+      </c>
+      <c r="D156" t="s">
+        <v>31</v>
+      </c>
+      <c r="E156" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" t="s">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>31</v>
+      </c>
+      <c r="H156" t="s">
+        <v>31</v>
+      </c>
+      <c r="I156" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" t="s">
+        <v>31</v>
+      </c>
+      <c r="K156" t="s">
+        <v>31</v>
+      </c>
+      <c r="L156" t="s">
+        <v>31</v>
+      </c>
+      <c r="M156" t="s">
+        <v>31</v>
+      </c>
+      <c r="N156" t="s">
+        <v>31</v>
+      </c>
+      <c r="O156" t="s">
+        <v>31</v>
+      </c>
+      <c r="P156" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q156" t="s">
+        <v>31</v>
+      </c>
+      <c r="R156" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>402</v>
+      </c>
+      <c r="B157" t="s">
+        <v>403</v>
+      </c>
+      <c r="C157" t="s">
+        <v>404</v>
+      </c>
+      <c r="D157" t="s">
+        <v>31</v>
+      </c>
+      <c r="E157" t="s">
+        <v>31</v>
+      </c>
+      <c r="F157" t="s">
+        <v>31</v>
+      </c>
+      <c r="G157" t="s">
+        <v>31</v>
+      </c>
+      <c r="H157" t="s">
+        <v>31</v>
+      </c>
+      <c r="I157" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" t="s">
+        <v>31</v>
+      </c>
+      <c r="K157" t="s">
+        <v>31</v>
+      </c>
+      <c r="L157" t="s">
+        <v>31</v>
+      </c>
+      <c r="M157" t="s">
+        <v>31</v>
+      </c>
+      <c r="N157" t="s">
+        <v>31</v>
+      </c>
+      <c r="O157" t="s">
+        <v>31</v>
+      </c>
+      <c r="P157" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q157" t="s">
+        <v>31</v>
+      </c>
+      <c r="R157" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>405</v>
+      </c>
+      <c r="B158" t="s">
+        <v>406</v>
+      </c>
+      <c r="C158" t="s">
+        <v>407</v>
+      </c>
+      <c r="D158" t="s">
+        <v>31</v>
+      </c>
+      <c r="E158" t="s">
+        <v>31</v>
+      </c>
+      <c r="F158" t="s">
+        <v>31</v>
+      </c>
+      <c r="G158" t="s">
+        <v>31</v>
+      </c>
+      <c r="H158" t="s">
+        <v>31</v>
+      </c>
+      <c r="I158" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" t="s">
+        <v>31</v>
+      </c>
+      <c r="K158" t="s">
+        <v>31</v>
+      </c>
+      <c r="L158" t="s">
+        <v>31</v>
+      </c>
+      <c r="M158" t="s">
+        <v>31</v>
+      </c>
+      <c r="N158" t="s">
+        <v>31</v>
+      </c>
+      <c r="O158" t="s">
+        <v>31</v>
+      </c>
+      <c r="P158" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q158" t="s">
+        <v>31</v>
+      </c>
+      <c r="R158" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>408</v>
+      </c>
+      <c r="B159" t="s">
+        <v>409</v>
+      </c>
+      <c r="C159" t="s">
+        <v>410</v>
+      </c>
+      <c r="D159" t="s">
+        <v>31</v>
+      </c>
+      <c r="E159" t="s">
+        <v>31</v>
+      </c>
+      <c r="F159" t="s">
+        <v>31</v>
+      </c>
+      <c r="G159" t="s">
+        <v>31</v>
+      </c>
+      <c r="H159" t="s">
+        <v>31</v>
+      </c>
+      <c r="I159" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" t="s">
+        <v>31</v>
+      </c>
+      <c r="K159" t="s">
+        <v>31</v>
+      </c>
+      <c r="L159" t="s">
+        <v>31</v>
+      </c>
+      <c r="M159" t="s">
+        <v>31</v>
+      </c>
+      <c r="N159" t="s">
+        <v>31</v>
+      </c>
+      <c r="O159" t="s">
+        <v>31</v>
+      </c>
+      <c r="P159" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q159" t="s">
+        <v>31</v>
+      </c>
+      <c r="R159" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>411</v>
+      </c>
+      <c r="B160" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" t="s">
+        <v>413</v>
+      </c>
+      <c r="D160" t="s">
+        <v>31</v>
+      </c>
+      <c r="E160" t="s">
+        <v>31</v>
+      </c>
+      <c r="F160" t="s">
+        <v>31</v>
+      </c>
+      <c r="G160" t="s">
+        <v>31</v>
+      </c>
+      <c r="H160" t="s">
+        <v>31</v>
+      </c>
+      <c r="I160" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" t="s">
+        <v>31</v>
+      </c>
+      <c r="K160" t="s">
+        <v>31</v>
+      </c>
+      <c r="L160" t="s">
+        <v>31</v>
+      </c>
+      <c r="M160" t="s">
+        <v>31</v>
+      </c>
+      <c r="N160" t="s">
+        <v>31</v>
+      </c>
+      <c r="O160" t="s">
+        <v>31</v>
+      </c>
+      <c r="P160" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q160" t="s">
+        <v>31</v>
+      </c>
+      <c r="R160" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>414</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>415</v>
+      </c>
+      <c r="D161" t="s">
+        <v>31</v>
+      </c>
+      <c r="E161" t="s">
+        <v>31</v>
+      </c>
+      <c r="F161" t="s">
+        <v>31</v>
+      </c>
+      <c r="G161" t="s">
+        <v>31</v>
+      </c>
+      <c r="H161" t="s">
+        <v>31</v>
+      </c>
+      <c r="I161" t="s">
+        <v>31</v>
+      </c>
+      <c r="J161" t="s">
+        <v>31</v>
+      </c>
+      <c r="K161" t="s">
+        <v>31</v>
+      </c>
+      <c r="L161" t="s">
+        <v>31</v>
+      </c>
+      <c r="M161" t="s">
+        <v>31</v>
+      </c>
+      <c r="N161" t="s">
+        <v>31</v>
+      </c>
+      <c r="O161" t="s">
+        <v>31</v>
+      </c>
+      <c r="P161" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q161" t="s">
+        <v>31</v>
+      </c>
+      <c r="R161" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>416</v>
+      </c>
+      <c r="B162" t="s">
+        <v>417</v>
+      </c>
+      <c r="C162" t="s">
+        <v>418</v>
+      </c>
+      <c r="D162" t="s">
+        <v>31</v>
+      </c>
+      <c r="E162" t="s">
+        <v>31</v>
+      </c>
+      <c r="F162" t="s">
+        <v>31</v>
+      </c>
+      <c r="G162" t="s">
+        <v>31</v>
+      </c>
+      <c r="H162" t="s">
+        <v>31</v>
+      </c>
+      <c r="I162" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" t="s">
+        <v>31</v>
+      </c>
+      <c r="K162" t="s">
+        <v>31</v>
+      </c>
+      <c r="L162" t="s">
+        <v>31</v>
+      </c>
+      <c r="M162" t="s">
+        <v>31</v>
+      </c>
+      <c r="N162" t="s">
+        <v>31</v>
+      </c>
+      <c r="O162" t="s">
+        <v>31</v>
+      </c>
+      <c r="P162" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q162" t="s">
+        <v>31</v>
+      </c>
+      <c r="R162" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>419</v>
+      </c>
+      <c r="B163" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163" t="s">
+        <v>420</v>
+      </c>
+      <c r="D163" t="s">
+        <v>31</v>
+      </c>
+      <c r="E163" t="s">
+        <v>31</v>
+      </c>
+      <c r="F163" t="s">
+        <v>31</v>
+      </c>
+      <c r="G163" t="s">
+        <v>31</v>
+      </c>
+      <c r="H163" t="s">
+        <v>31</v>
+      </c>
+      <c r="I163" t="s">
+        <v>31</v>
+      </c>
+      <c r="J163" t="s">
+        <v>31</v>
+      </c>
+      <c r="K163" t="s">
+        <v>31</v>
+      </c>
+      <c r="L163" t="s">
+        <v>31</v>
+      </c>
+      <c r="M163" t="s">
+        <v>31</v>
+      </c>
+      <c r="N163" t="s">
+        <v>31</v>
+      </c>
+      <c r="O163" t="s">
+        <v>31</v>
+      </c>
+      <c r="P163" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q163" t="s">
+        <v>31</v>
+      </c>
+      <c r="R163" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>421</v>
+      </c>
+      <c r="B164" t="s">
+        <v>19</v>
+      </c>
+      <c r="C164" t="s">
+        <v>422</v>
+      </c>
+      <c r="D164" t="s">
+        <v>31</v>
+      </c>
+      <c r="E164" t="s">
+        <v>31</v>
+      </c>
+      <c r="F164" t="s">
+        <v>31</v>
+      </c>
+      <c r="G164" t="s">
+        <v>31</v>
+      </c>
+      <c r="H164" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" t="s">
+        <v>31</v>
+      </c>
+      <c r="J164" t="s">
+        <v>31</v>
+      </c>
+      <c r="K164" t="s">
+        <v>31</v>
+      </c>
+      <c r="L164" t="s">
+        <v>31</v>
+      </c>
+      <c r="M164" t="s">
+        <v>31</v>
+      </c>
+      <c r="N164" t="s">
+        <v>31</v>
+      </c>
+      <c r="O164" t="s">
+        <v>31</v>
+      </c>
+      <c r="P164" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q164" t="s">
+        <v>31</v>
+      </c>
+      <c r="R164" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>423</v>
+      </c>
+      <c r="B165" t="s">
+        <v>19</v>
+      </c>
+      <c r="C165" t="s">
+        <v>424</v>
+      </c>
+      <c r="D165" t="s">
+        <v>31</v>
+      </c>
+      <c r="E165" t="s">
+        <v>31</v>
+      </c>
+      <c r="F165" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" t="s">
+        <v>31</v>
+      </c>
+      <c r="H165" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" t="s">
+        <v>31</v>
+      </c>
+      <c r="K165" t="s">
+        <v>31</v>
+      </c>
+      <c r="L165" t="s">
+        <v>31</v>
+      </c>
+      <c r="M165" t="s">
+        <v>31</v>
+      </c>
+      <c r="N165" t="s">
+        <v>31</v>
+      </c>
+      <c r="O165" t="s">
+        <v>31</v>
+      </c>
+      <c r="P165" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q165" t="s">
+        <v>31</v>
+      </c>
+      <c r="R165" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>425</v>
+      </c>
+      <c r="B166" t="s">
+        <v>79</v>
+      </c>
+      <c r="C166" t="s">
+        <v>426</v>
+      </c>
+      <c r="D166" t="s">
+        <v>31</v>
+      </c>
+      <c r="E166" t="s">
+        <v>31</v>
+      </c>
+      <c r="F166" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" t="s">
+        <v>31</v>
+      </c>
+      <c r="H166" t="s">
+        <v>31</v>
+      </c>
+      <c r="I166" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166" t="s">
+        <v>31</v>
+      </c>
+      <c r="K166" t="s">
+        <v>31</v>
+      </c>
+      <c r="L166" t="s">
+        <v>31</v>
+      </c>
+      <c r="M166" t="s">
+        <v>31</v>
+      </c>
+      <c r="N166" t="s">
+        <v>31</v>
+      </c>
+      <c r="O166" t="s">
+        <v>31</v>
+      </c>
+      <c r="P166" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q166" t="s">
+        <v>31</v>
+      </c>
+      <c r="R166" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>427</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167" t="s">
         <v>353</v>
       </c>
-      <c r="B139" t="s">
-        <v>48</v>
-      </c>
-      <c r="C139" t="s">
-        <v>354</v>
-      </c>
-      <c r="D139" t="s">
-        <v>31</v>
-      </c>
-      <c r="E139" t="s">
-        <v>31</v>
-      </c>
-      <c r="F139" t="s">
-        <v>31</v>
-      </c>
-      <c r="G139" t="s">
-        <v>31</v>
-      </c>
-      <c r="H139" t="s">
-        <v>31</v>
-      </c>
-      <c r="I139" t="s">
-        <v>31</v>
-      </c>
-      <c r="J139" t="s">
-        <v>31</v>
-      </c>
-      <c r="K139" t="s">
-        <v>31</v>
-      </c>
-      <c r="L139" t="s">
-        <v>31</v>
-      </c>
-      <c r="M139" t="s">
-        <v>31</v>
-      </c>
-      <c r="N139" t="s">
-        <v>31</v>
-      </c>
-      <c r="O139" t="s">
-        <v>31</v>
-      </c>
-      <c r="P139" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q139" t="s">
-        <v>31</v>
-      </c>
-      <c r="R139" t="s">
+      <c r="D167" t="s">
+        <v>31</v>
+      </c>
+      <c r="E167" t="s">
+        <v>31</v>
+      </c>
+      <c r="F167" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" t="s">
+        <v>31</v>
+      </c>
+      <c r="H167" t="s">
+        <v>31</v>
+      </c>
+      <c r="I167" t="s">
+        <v>31</v>
+      </c>
+      <c r="J167" t="s">
+        <v>31</v>
+      </c>
+      <c r="K167" t="s">
+        <v>31</v>
+      </c>
+      <c r="L167" t="s">
+        <v>31</v>
+      </c>
+      <c r="M167" t="s">
+        <v>31</v>
+      </c>
+      <c r="N167" t="s">
+        <v>31</v>
+      </c>
+      <c r="O167" t="s">
+        <v>31</v>
+      </c>
+      <c r="P167" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q167" t="s">
+        <v>31</v>
+      </c>
+      <c r="R167" t="s">
         <v>31</v>
       </c>
     </row>
@@ -9435,100 +11222,100 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>355</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>356</v>
+        <v>429</v>
       </c>
       <c r="B3" s="1">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>357</v>
+        <v>430</v>
       </c>
       <c r="B4" s="1">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>358</v>
+        <v>431</v>
       </c>
       <c r="B5" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>359</v>
+        <v>432</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>360</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>361</v>
+        <v>434</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>362</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>363</v>
+        <v>436</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>364</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>365</v>
+        <v>438</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>367</v>
+        <v>440</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>368</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>369</v>
+        <v>442</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>371</v>
+        <v>444</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>370</v>
+        <v>443</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>372</v>
+        <v>445</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>373</v>
+        <v>446</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>374</v>
+        <v>447</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>160</v>
@@ -9536,79 +11323,79 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>375</v>
+        <v>448</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>377</v>
+        <v>450</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>451</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>379</v>
+        <v>452</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>380</v>
+        <v>453</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>381</v>
+        <v>454</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>382</v>
+        <v>455</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>384</v>
+        <v>457</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>383</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>385</v>
+        <v>458</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>386</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>387</v>
+        <v>460</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>388</v>
+        <v>461</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>389</v>
+        <v>462</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>390</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>391</v>
+        <v>464</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>160</v>
@@ -9616,111 +11403,111 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>392</v>
+        <v>465</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>394</v>
+        <v>467</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>468</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>396</v>
+        <v>469</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>397</v>
+        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>398</v>
+        <v>471</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>399</v>
+        <v>472</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>400</v>
+        <v>473</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>402</v>
+        <v>475</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>403</v>
+        <v>476</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>404</v>
+        <v>477</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>478</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>376</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>406</v>
+        <v>479</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>180</v>
@@ -9728,10 +11515,10 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>407</v>
+        <v>480</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>373</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
